--- a/biology/Médecine/Institut_für_Qualität_und_Wirtschaftlichkeit_im_Gesundheitswesen/Institut_für_Qualität_und_Wirtschaftlichkeit_im_Gesundheitswesen.xlsx
+++ b/biology/Médecine/Institut_für_Qualität_und_Wirtschaftlichkeit_im_Gesundheitswesen/Institut_für_Qualität_und_Wirtschaftlichkeit_im_Gesundheitswesen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Institut_f%C3%BCr_Qualit%C3%A4t_und_Wirtschaftlichkeit_im_Gesundheitswesen</t>
+          <t>Institut_für_Qualität_und_Wirtschaftlichkeit_im_Gesundheitswesen</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'IQWiG, Institut für Qualität und Wirtschaftlichkeit im Gesundheitswesen (littéralement Institut pour la qualité et l'efficacité dans la santé), est un organisme allemand chargé d'évaluer la qualité et l'efficacité des traitements médicaux :
@@ -500,7 +512,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Institut_f%C3%BCr_Qualit%C3%A4t_und_Wirtschaftlichkeit_im_Gesundheitswesen</t>
+          <t>Institut_für_Qualität_und_Wirtschaftlichkeit_im_Gesundheitswesen</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -518,7 +530,9 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'IQWiG a été fondée en 2004. Son premier directeur a été le docteur Peter Sawicki.
 Il est dirigé depuis 2010 par le docteur Jürgen Windeler, et son adjoint le docteur Stefan Lange (en poste depuis 2005).
@@ -540,7 +554,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Institut_f%C3%BCr_Qualit%C3%A4t_und_Wirtschaftlichkeit_im_Gesundheitswesen</t>
+          <t>Institut_für_Qualität_und_Wirtschaftlichkeit_im_Gesundheitswesen</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -558,12 +572,14 @@
           <t>Rapports les plus remarqués</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'IQWiG a fait la une de l'actualité médicale en 2010 avec un rapport établissant que la Réboxétine est inefficace et que ses effets secondaires ont été sous-estimés[1].
-De même, en Septembre 2010, une autre étude déconseille l'usage de la Venlafaxine et de la Duloxétine comme traitements de première intention de la Dépression majeure, les recommandant plutôt en seconde intention[2].
-L'institut a jugé que les preuves scientifiques sont insuffisantes pour justifier l'utilisation de la Mémantine comme traitement de la maladie d'Alzheimer[3]. Elle a ensuite changé d'opinion sur la présentation de nouvelles études[4].
-L'institut a jugé que les analogues de l'insuline n'étaient pas supérieurs à l'insuline humaine dans le traitement du diabète de type I[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'IQWiG a fait la une de l'actualité médicale en 2010 avec un rapport établissant que la Réboxétine est inefficace et que ses effets secondaires ont été sous-estimés.
+De même, en Septembre 2010, une autre étude déconseille l'usage de la Venlafaxine et de la Duloxétine comme traitements de première intention de la Dépression majeure, les recommandant plutôt en seconde intention.
+L'institut a jugé que les preuves scientifiques sont insuffisantes pour justifier l'utilisation de la Mémantine comme traitement de la maladie d'Alzheimer. Elle a ensuite changé d'opinion sur la présentation de nouvelles études.
+L'institut a jugé que les analogues de l'insuline n'étaient pas supérieurs à l'insuline humaine dans le traitement du diabète de type I.
 </t>
         </is>
       </c>
